--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.5/avg_0.003_scores.xlsx
@@ -121,21 +121,21 @@
     <t>healthy</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -154,16 +154,16 @@
     <t>relief</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>hope</t>
@@ -1501,13 +1501,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7444444444444445</v>
       </c>
       <c r="L22">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="M22">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="N22">
         <v>0.9399999999999999</v>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1527,25 +1527,25 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.7444444444444445</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L23">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="M23">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1553,25 +1553,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.7428571428571429</v>
+        <v>0.74</v>
       </c>
       <c r="L24">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="M24">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1579,25 +1579,25 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.74</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L25">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N25">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1605,25 +1605,25 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.7391304347826086</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1787,25 +1787,25 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.6288343558282209</v>
+        <v>0.6188811188811189</v>
       </c>
       <c r="L33">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="M33">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1813,25 +1813,25 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.6188811188811189</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="L34">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="M34">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1839,25 +1839,25 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.6084656084656085</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L35">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>148</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1865,25 +1865,25 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.6046511627906976</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="10:17">
